--- a/src/main/resources/Researcher.xlsx
+++ b/src/main/resources/Researcher.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26605"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A023A461-A3D1-4C12-94EA-DEB784F16FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2F1F5ED-CBEA-4B2A-9C07-838A7C610627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -88,19 +88,54 @@
   </si>
   <si>
     <t>06\ 10\2002</t>
+  </si>
+  <si>
+    <t>amine</t>
+  </si>
+  <si>
+    <t>constantine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Med </t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>Pr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,9 +158,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,15 +479,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -548,6 +587,38 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="1:10" s="2" customFormat="1">
+      <c r="A4" s="3">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3">
+        <v>662064681</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
